--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t xml:space="preserve">Aufgabe </t>
   </si>
@@ -85,6 +85,48 @@
   </si>
   <si>
     <t>15.12.</t>
+  </si>
+  <si>
+    <t>Testphase</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Fehler korrigieren</t>
+  </si>
+  <si>
+    <t>12.01.</t>
+  </si>
+  <si>
+    <t>19.01.</t>
+  </si>
+  <si>
+    <t>26.01.</t>
+  </si>
+  <si>
+    <t>Verbesserungen</t>
+  </si>
+  <si>
+    <t>02.02.</t>
+  </si>
+  <si>
+    <t>16.02.</t>
+  </si>
+  <si>
+    <t>Projekthandbuch fertig stellen</t>
+  </si>
+  <si>
+    <t>09.02.</t>
+  </si>
+  <si>
+    <t>Systemhandbuch erarbeiten/fertigstellen</t>
+  </si>
+  <si>
+    <t>Überprüfung aller Ergebnisse</t>
+  </si>
+  <si>
+    <t>23.02. - 23 Uhr</t>
   </si>
 </sst>
 </file>
@@ -141,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -149,6 +191,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +500,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
@@ -632,52 +677,108 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42740</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42747</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
